--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,16 +54,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -235,9 +238,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -316,9 +316,6 @@
     <t>Path to the FHIR element that the insight pertains to; Multiple array instances for  path should only be created when the same set of insight results pertain to more than one path. If insight results are different for each path, then multiple insight elements at the top level insight array should be created instead.</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>insightId</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.id</t>
   </si>
   <si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
@@ -606,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -682,98 +685,92 @@
       <c r="A9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -832,203 +829,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>75</v>
@@ -1037,7 +1034,7 @@
         <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -1046,23 +1043,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>79</v>
@@ -1076,65 +1073,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>83</v>
@@ -1150,19 +1147,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>86</v>
@@ -1178,38 +1175,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>90</v>
@@ -1218,7 +1215,7 @@
         <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>92</v>
@@ -1227,13 +1224,13 @@
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
@@ -1250,23 +1247,23 @@
         <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>95</v>
@@ -1280,68 +1277,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1349,101 +1346,101 @@
         <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -1451,101 +1448,101 @@
         <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1553,101 +1550,101 @@
         <v>84</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1655,126 +1652,126 @@
         <v>84</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
@@ -1788,65 +1785,65 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>83</v>
@@ -1854,72 +1851,72 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>90</v>
@@ -1928,7 +1925,7 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>92</v>
@@ -1937,19 +1934,19 @@
         <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1958,23 +1955,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>79</v>
@@ -1988,65 +1985,65 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>83</v>
@@ -2062,19 +2059,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>86</v>
@@ -2090,38 +2087,38 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>90</v>
@@ -2130,7 +2127,7 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>92</v>
@@ -2139,13 +2136,13 @@
         <v>93</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -2160,7 +2157,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2170,13 +2167,13 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>117</v>
@@ -2192,50 +2189,50 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>121</v>
@@ -2247,122 +2244,122 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2372,13 +2369,13 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>117</v>
@@ -2394,50 +2391,50 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>121</v>
@@ -2449,211 +2446,211 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -2661,101 +2658,101 @@
         <v>84</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -2763,101 +2760,101 @@
         <v>84</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -2865,101 +2862,101 @@
         <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -2968,7 +2965,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -2978,13 +2975,13 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>117</v>
@@ -3000,50 +2997,50 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>121</v>
@@ -3055,113 +3052,113 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,13 +368,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -390,92 +384,86 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
+  </si>
+  <si>
+    <t>insightType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-type}
+</t>
+  </si>
+  <si>
+    <t>Code for the specific insight type</t>
+  </si>
+  <si>
+    <t>Code for the specific insight type, such as Phone Number Inconsistent with Area Code</t>
+  </si>
+  <si>
+    <t>insightDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-detail}
+</t>
+  </si>
+  <si>
+    <t>Information leveraged to produce the insight results and information specific scoring breakdown when appropriate</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-result-summary}
+</t>
+  </si>
+  <si>
+    <t>Value specific final insight results</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
-  </si>
-  <si>
-    <t>insightType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-type}
-</t>
-  </si>
-  <si>
-    <t>Code for the specific insight type</t>
-  </si>
-  <si>
-    <t>Code for the specific insight type, such as Phone Number Inconsistent with Area Code</t>
-  </si>
-  <si>
-    <t>insightDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-detail}
-</t>
-  </si>
-  <si>
-    <t>Information leveraged to produce the insight results and information specific scoring breakdown when appropriate</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-result-summary}
-</t>
-  </si>
-  <si>
-    <t>Value specific final insight results</t>
   </si>
 </sst>
 </file>
@@ -780,7 +768,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -789,7 +777,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1959,7 +1947,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>78</v>
@@ -1974,22 +1962,24 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>72</v>
@@ -2031,10 +2021,10 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2046,23 +2036,23 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2074,17 +2064,15 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>72</v>
@@ -2121,47 +2109,47 @@
         <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
@@ -2176,17 +2164,15 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -2211,13 +2197,11 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>72</v>
@@ -2235,10 +2219,10 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2247,17 +2231,19 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>72</v>
       </c>
@@ -2278,13 +2264,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2335,38 +2321,40 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -2378,24 +2366,22 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>72</v>
@@ -2437,29 +2423,31 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>72</v>
       </c>
@@ -2468,7 +2456,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -2480,13 +2468,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2525,47 +2513,47 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>78</v>
@@ -2580,22 +2568,24 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>72</v>
@@ -2613,11 +2603,13 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>72</v>
@@ -2635,10 +2627,10 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -2647,19 +2639,17 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>72</v>
       </c>
@@ -2668,7 +2658,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2680,13 +2670,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2737,428 +2727,22 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -778,41 +778,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.87109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight.xlsx
+++ b/StructureDefinition-insight.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/insight</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,13 +54,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -244,115 +244,115 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/path}
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
+    <t>Path to the FHIR element that the insight pertains to.</t>
+  </si>
+  <si>
+    <t>Path to the FHIR element that the insight pertains to; Multiple array instances for  path should only be created when the same set of insight results pertain to more than one path. If insight results are different for each path, then multiple insight elements at the top level insight array should be created instead.</t>
+  </si>
+  <si>
+    <t>insightId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-id}
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>ID for the insight as known by the source (or source system) that this insight was provided from</t>
+  </si>
+  <si>
+    <t>ID for the insight as it is known by the source (or source system) that this insight was provided from.</t>
+  </si>
+  <si>
+    <t>sourceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-id}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/path}
+    <t>The ID of the source of the insight, such as an individual, algorithm, etc. that generated the insight.</t>
+  </si>
+  <si>
+    <t>detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/detected}
 </t>
   </si>
   <si>
-    <t>Path to the FHIR element that the insight pertains to.</t>
-  </si>
-  <si>
-    <t>Path to the FHIR element that the insight pertains to; Multiple array instances for  path should only be created when the same set of insight results pertain to more than one path. If insight results are different for each path, then multiple insight elements at the top level insight array should be created instead.</t>
-  </si>
-  <si>
-    <t>insightId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-id}
-</t>
-  </si>
-  <si>
-    <t>ID for the insight as known by the source (or source system) that this insight was provided from</t>
-  </si>
-  <si>
-    <t>ID for the insight as it is known by the source (or source system) that this insight was provided from.</t>
-  </si>
-  <si>
-    <t>sourceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-id}
-</t>
-  </si>
-  <si>
-    <t>The ID of the source of the insight, such as an individual, algorithm, etc. that generated the insight.</t>
-  </si>
-  <si>
-    <t>detected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/detected}
-</t>
-  </si>
-  <si>
     <t>When the insight evaluation occurred</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/category}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/category}
 </t>
   </si>
   <si>
@@ -384,7 +384,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/category</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -426,13 +426,13 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/insight-category-values</t>
   </si>
   <si>
     <t>insightType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-type}
 </t>
   </si>
   <si>
@@ -445,7 +445,7 @@
     <t>insightDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-detail}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-detail}
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>result</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-result-summary}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-result-summary}
 </t>
   </si>
   <si>
@@ -801,7 +801,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.87109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1019,7 +1019,7 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1038,25 +1038,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1107,31 +1107,31 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1150,16 +1150,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1197,19 +1197,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1221,15 +1221,15 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1311,7 +1311,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1323,7 +1323,7 @@
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>98</v>
@@ -1344,7 +1344,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1413,7 +1413,7 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -1425,7 +1425,7 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>102</v>
@@ -1446,7 +1446,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1515,7 +1515,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -1527,7 +1527,7 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>105</v>
@@ -1548,7 +1548,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1617,7 +1617,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -1629,7 +1629,7 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>108</v>
@@ -1650,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1719,7 +1719,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -1731,7 +1731,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -1750,25 +1750,25 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1819,22 +1819,22 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1862,7 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>27</v>
@@ -1907,19 +1907,19 @@
         <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
+      <c r="AE11" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -1931,7 +1931,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -1947,10 +1947,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -2024,10 +2024,10 @@
         <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
@@ -2052,7 +2052,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2125,7 +2125,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2152,7 +2152,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -2225,7 +2225,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>133</v>
@@ -2252,7 +2252,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2321,7 +2321,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2333,7 +2333,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>137</v>
@@ -2423,7 +2423,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -2435,7 +2435,7 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>140</v>
@@ -2525,7 +2525,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -2537,7 +2537,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -2553,10 +2553,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2630,10 +2630,10 @@
         <v>120</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2733,7 +2733,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
